--- a/artfynd/A 26657-2022 artfynd.xlsx
+++ b/artfynd/A 26657-2022 artfynd.xlsx
@@ -5294,7 +5294,7 @@
         <v>124302189</v>
       </c>
       <c r="B46" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>128716003</v>
       </c>
       <c r="B51" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
